--- a/files/excel.xlsx
+++ b/files/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\let4eg-hp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\let4eg-hp\Downloads\qa_guru_3_6\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BCC9E0-C969-4A90-B772-6C210207C483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F929EF-FD8E-4263-8B25-8F05A6B3A1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{533CAB5D-8871-413E-A92B-DE1547296575}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>svetlana</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>james brown</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
 </sst>
 </file>
@@ -398,30 +410,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B464095-0E12-430C-A0CB-10CFC7E92167}">
-  <dimension ref="B2:B5"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
